--- a/data_modified3.xlsx
+++ b/data_modified3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\Stage 2021\DataScience\lombalgie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32290A6B-4CF1-48CC-AEBE-0EE34B8E14AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342DAC0-3B19-46B9-8256-2267D087816E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6626,7 +6626,7 @@
   <dimension ref="A1:CA217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6651,10 +6651,10 @@
         <v>2058</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2052</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2053</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2059</v>
